--- a/Crawling/crawling_data/week_genie/week_genie_20220103.xlsx
+++ b/Crawling/crawling_data/week_genie/week_genie_20220103.xlsx
@@ -211,8 +211,7 @@
     <t>다시 사랑한다면 (김필 Ver.)</t>
   </si>
   <si>
-    <t>19금
-                                    Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
+    <t>Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
   </si>
   <si>
     <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
